--- a/Code/Results/Cases/Case_8_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038188504988771</v>
+        <v>1.029263430899519</v>
       </c>
       <c r="D2">
-        <v>1.048790896389661</v>
+        <v>1.040869510025647</v>
       </c>
       <c r="E2">
-        <v>1.046561782906728</v>
+        <v>1.039640676978374</v>
       </c>
       <c r="F2">
-        <v>1.052179878349577</v>
+        <v>1.046544543456416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.065703677243327</v>
+        <v>1.060445818060541</v>
       </c>
       <c r="J2">
-        <v>1.059284057651006</v>
+        <v>1.050602768235745</v>
       </c>
       <c r="K2">
-        <v>1.059609903985515</v>
+        <v>1.051787382803978</v>
       </c>
       <c r="L2">
-        <v>1.05740842310874</v>
+        <v>1.050574055005349</v>
       </c>
       <c r="M2">
-        <v>1.062957154365429</v>
+        <v>1.057391397934009</v>
       </c>
       <c r="N2">
-        <v>1.06078836251445</v>
+        <v>1.037968992507138</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.058398538351998</v>
+        <v>1.05399370853767</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053219452949286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047697055521732</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025338223799374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042740351439638</v>
+        <v>1.033183151341742</v>
       </c>
       <c r="D3">
-        <v>1.051951198378472</v>
+        <v>1.043449267305723</v>
       </c>
       <c r="E3">
-        <v>1.050221953947938</v>
+        <v>1.042751309791549</v>
       </c>
       <c r="F3">
-        <v>1.055561139446441</v>
+        <v>1.049497830047108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.067276541314535</v>
+        <v>1.06162952717421</v>
       </c>
       <c r="J3">
-        <v>1.062130004571363</v>
+        <v>1.052808343765055</v>
       </c>
       <c r="K3">
-        <v>1.061959857043359</v>
+        <v>1.05355482587787</v>
       </c>
       <c r="L3">
-        <v>1.060250164817806</v>
+        <v>1.05286490993917</v>
       </c>
       <c r="M3">
-        <v>1.0655292354379</v>
+        <v>1.059534252031175</v>
       </c>
       <c r="N3">
-        <v>1.063638351005868</v>
+        <v>1.039205497601861</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0604341164349</v>
+        <v>1.055689601001</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.054878399834613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048943855038784</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025750817964215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04562753385806</v>
+        <v>1.035673816060118</v>
       </c>
       <c r="D4">
-        <v>1.053958895907906</v>
+        <v>1.045091705733635</v>
       </c>
       <c r="E4">
-        <v>1.052548443239696</v>
+        <v>1.044733248519498</v>
       </c>
       <c r="F4">
-        <v>1.05771297910775</v>
+        <v>1.051381359098934</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.068264755920153</v>
+        <v>1.062372475074822</v>
       </c>
       <c r="J4">
-        <v>1.063931957510535</v>
+        <v>1.054207000433662</v>
       </c>
       <c r="K4">
-        <v>1.063446944095606</v>
+        <v>1.054674748029083</v>
       </c>
       <c r="L4">
-        <v>1.062051470547885</v>
+        <v>1.054320172550007</v>
       </c>
       <c r="M4">
-        <v>1.067161396629539</v>
+        <v>1.060896818137398</v>
       </c>
       <c r="N4">
-        <v>1.065442862924901</v>
+        <v>1.039989616334055</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.06172582704297</v>
+        <v>1.056767957843299</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.055930734588903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049736678618061</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02600983167487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046834449529159</v>
+        <v>1.036715021229366</v>
       </c>
       <c r="D5">
-        <v>1.054801591002825</v>
+        <v>1.0457817036394</v>
       </c>
       <c r="E5">
-        <v>1.053523505664781</v>
+        <v>1.045564025330071</v>
       </c>
       <c r="F5">
-        <v>1.058614273252624</v>
+        <v>1.052170378211989</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.068677722668844</v>
+        <v>1.062682769689746</v>
       </c>
       <c r="J5">
-        <v>1.064686753110966</v>
+        <v>1.05479296697704</v>
       </c>
       <c r="K5">
-        <v>1.064071549036281</v>
+        <v>1.055145729650198</v>
       </c>
       <c r="L5">
-        <v>1.062806673246556</v>
+        <v>1.054930346020562</v>
       </c>
       <c r="M5">
-        <v>1.067845056599498</v>
+        <v>1.061467573625395</v>
       </c>
       <c r="N5">
-        <v>1.066198730421661</v>
+        <v>1.040318121147251</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.062266882545922</v>
+        <v>1.057219662510322</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.056379381353299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050077461176828</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026119593711015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047044349866592</v>
+        <v>1.036894993756575</v>
       </c>
       <c r="D6">
-        <v>1.054951473571426</v>
+        <v>1.045904228306394</v>
       </c>
       <c r="E6">
-        <v>1.053694845787428</v>
+        <v>1.04570888872989</v>
       </c>
       <c r="F6">
-        <v>1.058771234467208</v>
+        <v>1.052306837662382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.068752049071775</v>
+        <v>1.062738650233844</v>
       </c>
       <c r="J6">
-        <v>1.064820809525071</v>
+        <v>1.054896601112131</v>
       </c>
       <c r="K6">
-        <v>1.064184770938515</v>
+        <v>1.055231447774206</v>
       </c>
       <c r="L6">
-        <v>1.062941070918209</v>
+        <v>1.055038157978423</v>
       </c>
       <c r="M6">
-        <v>1.067965464962385</v>
+        <v>1.06156738593776</v>
       </c>
       <c r="N6">
-        <v>1.066332977211251</v>
+        <v>1.040376220477102</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.062362174918737</v>
+        <v>1.057298655481282</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05646799083488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050147544162451</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026141260397095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045665473559446</v>
+        <v>1.035735817270615</v>
       </c>
       <c r="D7">
-        <v>1.053994219937987</v>
+        <v>1.045146328082526</v>
       </c>
       <c r="E7">
-        <v>1.0525837439851</v>
+        <v>1.044791722627812</v>
       </c>
       <c r="F7">
-        <v>1.057741646301696</v>
+        <v>1.051427511184542</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.068284871144069</v>
+        <v>1.062406201289375</v>
       </c>
       <c r="J7">
-        <v>1.063963345888076</v>
+        <v>1.054261785438586</v>
       </c>
       <c r="K7">
-        <v>1.063479095999329</v>
+        <v>1.054725950107553</v>
       </c>
       <c r="L7">
-        <v>1.062083593221332</v>
+        <v>1.054375182892308</v>
       </c>
       <c r="M7">
-        <v>1.06718697800466</v>
+        <v>1.060939671313042</v>
       </c>
       <c r="N7">
-        <v>1.065474295877539</v>
+        <v>1.040071434151947</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061746072412042</v>
+        <v>1.056801872514519</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.055973150809746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049794677624713</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026033549148789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039767076503951</v>
+        <v>1.03072040450983</v>
       </c>
       <c r="D8">
-        <v>1.049897367112425</v>
+        <v>1.041854996489565</v>
       </c>
       <c r="E8">
-        <v>1.047836376452754</v>
+        <v>1.040819471998566</v>
       </c>
       <c r="F8">
-        <v>1.053351620931794</v>
+        <v>1.047639220152009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.066260004669088</v>
+        <v>1.060923304482071</v>
       </c>
       <c r="J8">
-        <v>1.060281410546693</v>
+        <v>1.051473511946372</v>
       </c>
       <c r="K8">
-        <v>1.060441344795477</v>
+        <v>1.052496360341757</v>
       </c>
       <c r="L8">
-        <v>1.058405134106948</v>
+        <v>1.051473511156194</v>
       </c>
       <c r="M8">
-        <v>1.063854336544442</v>
+        <v>1.058210354624078</v>
       </c>
       <c r="N8">
-        <v>1.061787131765647</v>
+        <v>1.038612198162486</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.05910858049207</v>
+        <v>1.054641845729555</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.053829781638186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048223186177674</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025533366598066</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028869111673963</v>
+        <v>1.021390437078995</v>
       </c>
       <c r="D9">
-        <v>1.04234073907155</v>
+        <v>1.035728661398668</v>
       </c>
       <c r="E9">
-        <v>1.039097826595499</v>
+        <v>1.033449111854088</v>
       </c>
       <c r="F9">
-        <v>1.04529885780527</v>
+        <v>1.040651177365792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.06243382553657</v>
+        <v>1.058053542131817</v>
       </c>
       <c r="J9">
-        <v>1.053442054959504</v>
+        <v>1.046209815294004</v>
       </c>
       <c r="K9">
-        <v>1.054782286954677</v>
+        <v>1.048267492467613</v>
       </c>
       <c r="L9">
-        <v>1.05158689084739</v>
+        <v>1.046021848812091</v>
       </c>
       <c r="M9">
-        <v>1.057697388190216</v>
+        <v>1.053117434436609</v>
       </c>
       <c r="N9">
-        <v>1.05493806350904</v>
+        <v>1.035680196626888</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.054235874846268</v>
+        <v>1.050611207199625</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.049825469292629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045229763043779</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024533240635948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021388878172737</v>
+        <v>1.015157371086543</v>
       </c>
       <c r="D10">
-        <v>1.037195994289324</v>
+        <v>1.031701190274431</v>
       </c>
       <c r="E10">
-        <v>1.033186130364574</v>
+        <v>1.028637253122362</v>
       </c>
       <c r="F10">
-        <v>1.039899165425602</v>
+        <v>1.036105509363867</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05979441622469</v>
+        <v>1.056161664835748</v>
       </c>
       <c r="J10">
-        <v>1.048778848181625</v>
+        <v>1.042782255704728</v>
       </c>
       <c r="K10">
-        <v>1.050924641406193</v>
+        <v>1.045520725869989</v>
       </c>
       <c r="L10">
-        <v>1.046980981121226</v>
+        <v>1.042508012322275</v>
       </c>
       <c r="M10">
-        <v>1.053583552903</v>
+        <v>1.049852095339673</v>
       </c>
       <c r="N10">
-        <v>1.050268234442658</v>
+        <v>1.033987643268534</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.051030770218758</v>
+        <v>1.048077787483294</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.047114486389219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043305954943998</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023928052542444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019112213150921</v>
+        <v>1.013342196564453</v>
       </c>
       <c r="D11">
-        <v>1.035791163198913</v>
+        <v>1.030699675049982</v>
       </c>
       <c r="E11">
-        <v>1.031842119312314</v>
+        <v>1.027666049687704</v>
       </c>
       <c r="F11">
-        <v>1.03894872624428</v>
+        <v>1.035457146428668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.059241583482957</v>
+        <v>1.055883827164797</v>
       </c>
       <c r="J11">
-        <v>1.047710963144673</v>
+        <v>1.042170268638831</v>
       </c>
       <c r="K11">
-        <v>1.050068266151975</v>
+        <v>1.045064968512593</v>
       </c>
       <c r="L11">
-        <v>1.046187526277474</v>
+        <v>1.042084427485412</v>
       </c>
       <c r="M11">
-        <v>1.05317169748888</v>
+        <v>1.049740000568736</v>
       </c>
       <c r="N11">
-        <v>1.049198832886466</v>
+        <v>1.034081731233537</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.051134766196866</v>
+        <v>1.048420337372759</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04654134706848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043019389228805</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024029926973283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018632056556349</v>
+        <v>1.012909430806391</v>
       </c>
       <c r="D12">
-        <v>1.035571743428451</v>
+        <v>1.030519292624087</v>
       </c>
       <c r="E12">
-        <v>1.031796889251079</v>
+        <v>1.027622227753271</v>
       </c>
       <c r="F12">
-        <v>1.039109850335903</v>
+        <v>1.035632413734302</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.059255700314739</v>
+        <v>1.055927428627031</v>
       </c>
       <c r="J12">
-        <v>1.047668283736678</v>
+        <v>1.042177313856063</v>
       </c>
       <c r="K12">
-        <v>1.05004776680038</v>
+        <v>1.045084252949954</v>
       </c>
       <c r="L12">
-        <v>1.046339253688018</v>
+        <v>1.04223869653253</v>
       </c>
       <c r="M12">
-        <v>1.053524259637016</v>
+        <v>1.050107375972855</v>
       </c>
       <c r="N12">
-        <v>1.049156092868816</v>
+        <v>1.034275658880294</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051735699130071</v>
+        <v>1.049033880429312</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046526853777359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043033023397452</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024157146393079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019532447941182</v>
+        <v>1.013515444142633</v>
       </c>
       <c r="D13">
-        <v>1.036280335200434</v>
+        <v>1.030969747512651</v>
       </c>
       <c r="E13">
-        <v>1.032778716832005</v>
+        <v>1.028296924234032</v>
       </c>
       <c r="F13">
-        <v>1.040170366900257</v>
+        <v>1.036469347264722</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05973082835841</v>
+        <v>1.056231258936031</v>
       </c>
       <c r="J13">
-        <v>1.048442875353838</v>
+        <v>1.042668047606897</v>
       </c>
       <c r="K13">
-        <v>1.050702159982547</v>
+        <v>1.045484606772938</v>
       </c>
       <c r="L13">
-        <v>1.047261746100475</v>
+        <v>1.042859079533313</v>
       </c>
       <c r="M13">
-        <v>1.054524822978818</v>
+        <v>1.050887883549781</v>
       </c>
       <c r="N13">
-        <v>1.049931784494919</v>
+        <v>1.034508613838627</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.052800178130443</v>
+        <v>1.049925062814381</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046987064220123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043313370400257</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024322011899519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020783653662354</v>
+        <v>1.014419116280146</v>
       </c>
       <c r="D14">
-        <v>1.037194257226016</v>
+        <v>1.031580878476806</v>
       </c>
       <c r="E14">
-        <v>1.033925037118528</v>
+        <v>1.029104412655639</v>
       </c>
       <c r="F14">
-        <v>1.041314890223574</v>
+        <v>1.037361136832289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.060269781657818</v>
+        <v>1.056567389121435</v>
       </c>
       <c r="J14">
-        <v>1.049351116164008</v>
+        <v>1.043238922537591</v>
       </c>
       <c r="K14">
-        <v>1.051463349060911</v>
+        <v>1.045947049252239</v>
       </c>
       <c r="L14">
-        <v>1.048250501674241</v>
+        <v>1.043513848153345</v>
       </c>
       <c r="M14">
-        <v>1.055513579064293</v>
+        <v>1.051627363402756</v>
       </c>
       <c r="N14">
-        <v>1.050841315111215</v>
+        <v>1.034695267736665</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.053753250798598</v>
+        <v>1.050681481993795</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.047526635990297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043641864728331</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024461382716193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021401970004226</v>
+        <v>1.014881915856459</v>
       </c>
       <c r="D15">
-        <v>1.037632170738132</v>
+        <v>1.031883925370718</v>
       </c>
       <c r="E15">
-        <v>1.03444542596684</v>
+        <v>1.029479809168088</v>
       </c>
       <c r="F15">
-        <v>1.041811201373481</v>
+        <v>1.037747494936321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.060510903792795</v>
+        <v>1.056717623329269</v>
       </c>
       <c r="J15">
-        <v>1.049764857479154</v>
+        <v>1.043501005802242</v>
       </c>
       <c r="K15">
-        <v>1.051809474493668</v>
+        <v>1.046159873514116</v>
       </c>
       <c r="L15">
-        <v>1.048677241713047</v>
+        <v>1.04379743673629</v>
       </c>
       <c r="M15">
-        <v>1.055917671198153</v>
+        <v>1.051922834078901</v>
       </c>
       <c r="N15">
-        <v>1.051255643986486</v>
+        <v>1.034763318511941</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054109815940724</v>
+        <v>1.050952271582684</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047777125560579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043798700909299</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024512961702063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024397221905831</v>
+        <v>1.017221901416943</v>
       </c>
       <c r="D16">
-        <v>1.039674662853857</v>
+        <v>1.033358283120227</v>
       </c>
       <c r="E16">
-        <v>1.036760839129688</v>
+        <v>1.031218645580991</v>
       </c>
       <c r="F16">
-        <v>1.043922020268119</v>
+        <v>1.039411267167369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.061553297792008</v>
+        <v>1.057375026900318</v>
       </c>
       <c r="J16">
-        <v>1.05160142221101</v>
+        <v>1.044693853771204</v>
       </c>
       <c r="K16">
-        <v>1.05332802880297</v>
+        <v>1.047115289505228</v>
       </c>
       <c r="L16">
-        <v>1.050461813935481</v>
+        <v>1.045011130301984</v>
       </c>
       <c r="M16">
-        <v>1.057506599691556</v>
+        <v>1.05306892262922</v>
       </c>
       <c r="N16">
-        <v>1.053094816850919</v>
+        <v>1.035034412522496</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.055327402446896</v>
+        <v>1.051819734958855</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.048853873164157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044477622052405</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024678250306298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026043935827907</v>
+        <v>1.018567770980285</v>
       </c>
       <c r="D17">
-        <v>1.040767547351662</v>
+        <v>1.034187678701228</v>
       </c>
       <c r="E17">
-        <v>1.0379416738967</v>
+        <v>1.032149996565648</v>
       </c>
       <c r="F17">
-        <v>1.044940405267883</v>
+        <v>1.040231193579443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.062070186883653</v>
+        <v>1.057712913099489</v>
       </c>
       <c r="J17">
-        <v>1.052536806768198</v>
+        <v>1.04533065323505</v>
       </c>
       <c r="K17">
-        <v>1.054096635109832</v>
+        <v>1.047621699824855</v>
       </c>
       <c r="L17">
-        <v>1.051315618785974</v>
+        <v>1.045616862156765</v>
       </c>
       <c r="M17">
-        <v>1.058203821680357</v>
+        <v>1.053568771270033</v>
       </c>
       <c r="N17">
-        <v>1.054031529761468</v>
+        <v>1.035206874296529</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05575092610258</v>
+        <v>1.052086889876083</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.049399829745183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044838466096723</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024736605276512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026645765845084</v>
+        <v>1.019117927968258</v>
       </c>
       <c r="D18">
-        <v>1.041104831878013</v>
+        <v>1.034477192415403</v>
       </c>
       <c r="E18">
-        <v>1.038198179546326</v>
+        <v>1.032389080659286</v>
       </c>
       <c r="F18">
-        <v>1.045042869272536</v>
+        <v>1.04031055336719</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.062155356360216</v>
+        <v>1.057764532573924</v>
       </c>
       <c r="J18">
-        <v>1.052738593270544</v>
+        <v>1.045477643239534</v>
       </c>
       <c r="K18">
-        <v>1.054249856375293</v>
+        <v>1.047726207787254</v>
       </c>
       <c r="L18">
-        <v>1.051388601741912</v>
+        <v>1.045671213890395</v>
       </c>
       <c r="M18">
-        <v>1.058126901659607</v>
+        <v>1.053467951142355</v>
       </c>
       <c r="N18">
-        <v>1.054233602823792</v>
+        <v>1.035208463931621</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.055455452973189</v>
+        <v>1.051771772434282</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.049496723997828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044899734612042</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024676925515568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026326853132857</v>
+        <v>1.018942222539476</v>
       </c>
       <c r="D19">
-        <v>1.040788201872592</v>
+        <v>1.034283746348227</v>
       </c>
       <c r="E19">
-        <v>1.037641064168691</v>
+        <v>1.031994052335519</v>
       </c>
       <c r="F19">
-        <v>1.044327647930503</v>
+        <v>1.039708277705675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.061868982729026</v>
+        <v>1.057559382681688</v>
       </c>
       <c r="J19">
-        <v>1.052301836872467</v>
+        <v>1.045177671490566</v>
       </c>
       <c r="K19">
-        <v>1.053877182569128</v>
+        <v>1.047474306829923</v>
       </c>
       <c r="L19">
-        <v>1.050778990253618</v>
+        <v>1.045220761059598</v>
       </c>
       <c r="M19">
-        <v>1.057362031722841</v>
+        <v>1.052814011090708</v>
       </c>
       <c r="N19">
-        <v>1.053796226181533</v>
+        <v>1.03501754211982</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.054529796340867</v>
+        <v>1.050932679021532</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04923952621184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044728576866543</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024516588390967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023395587430987</v>
+        <v>1.016717124737322</v>
       </c>
       <c r="D20">
-        <v>1.038598721460527</v>
+        <v>1.032712451879137</v>
       </c>
       <c r="E20">
-        <v>1.034787674453468</v>
+        <v>1.029829183686611</v>
       </c>
       <c r="F20">
-        <v>1.041351751920415</v>
+        <v>1.037243879922215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.060525529742492</v>
+        <v>1.056629016089429</v>
       </c>
       <c r="J20">
-        <v>1.050053513340187</v>
+        <v>1.043618498712392</v>
       </c>
       <c r="K20">
-        <v>1.051995194730204</v>
+        <v>1.046203488002417</v>
       </c>
       <c r="L20">
-        <v>1.04824521461211</v>
+        <v>1.043367046265427</v>
       </c>
       <c r="M20">
-        <v>1.054704467717355</v>
+        <v>1.050661996785932</v>
       </c>
       <c r="N20">
-        <v>1.051544709771951</v>
+        <v>1.034264386145653</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051907451091243</v>
+        <v>1.048708303376324</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047912797822253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043834352324321</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024069434271084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017559274762629</v>
+        <v>1.01237039756285</v>
       </c>
       <c r="D21">
-        <v>1.034560118413213</v>
+        <v>1.029973367156763</v>
       </c>
       <c r="E21">
-        <v>1.030100145744277</v>
+        <v>1.026524991775874</v>
       </c>
       <c r="F21">
-        <v>1.03702193870297</v>
+        <v>1.033969961869284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.058398306743848</v>
+        <v>1.055377303738096</v>
       </c>
       <c r="J21">
-        <v>1.046340762596389</v>
+        <v>1.04135987019495</v>
       </c>
       <c r="K21">
-        <v>1.048915042792368</v>
+        <v>1.044408297346402</v>
       </c>
       <c r="L21">
-        <v>1.044532852153618</v>
+        <v>1.041020681996953</v>
       </c>
       <c r="M21">
-        <v>1.051334299467019</v>
+        <v>1.048335128734889</v>
       </c>
       <c r="N21">
-        <v>1.047826686496239</v>
+        <v>1.033795983874598</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.049199993530251</v>
+        <v>1.046826375388207</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04573827278147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042568635194934</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023762723891945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013841858845387</v>
+        <v>1.009586344108482</v>
       </c>
       <c r="D22">
-        <v>1.031992741585046</v>
+        <v>1.028223759177767</v>
       </c>
       <c r="E22">
-        <v>1.027142254561606</v>
+        <v>1.024438800171421</v>
       </c>
       <c r="F22">
-        <v>1.034315772866316</v>
+        <v>1.031928364077341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.057042235533254</v>
+        <v>1.054569593245932</v>
       </c>
       <c r="J22">
-        <v>1.043986316194576</v>
+        <v>1.039911474071156</v>
       </c>
       <c r="K22">
-        <v>1.046955986283695</v>
+        <v>1.043256093127575</v>
       </c>
       <c r="L22">
-        <v>1.04219453561337</v>
+        <v>1.039541183632541</v>
       </c>
       <c r="M22">
-        <v>1.049236760299359</v>
+        <v>1.046892783366191</v>
       </c>
       <c r="N22">
-        <v>1.045468896510477</v>
+        <v>1.033450371613662</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047539949782441</v>
+        <v>1.045684864755349</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04433986659738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041739344338341</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023569864384454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01579783129115</v>
+        <v>1.011002452002575</v>
       </c>
       <c r="D23">
-        <v>1.033334553424702</v>
+        <v>1.029093655883747</v>
       </c>
       <c r="E23">
-        <v>1.028691967136932</v>
+        <v>1.025480308426692</v>
       </c>
       <c r="F23">
-        <v>1.035737557213531</v>
+        <v>1.032963701896567</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057750112890254</v>
+        <v>1.054960745192588</v>
       </c>
       <c r="J23">
-        <v>1.045217820603934</v>
+        <v>1.040619981952995</v>
       </c>
       <c r="K23">
-        <v>1.047975146678972</v>
+        <v>1.043809991042168</v>
       </c>
       <c r="L23">
-        <v>1.043415518477899</v>
+        <v>1.040261820381701</v>
       </c>
       <c r="M23">
-        <v>1.050335590116909</v>
+        <v>1.047610886308668</v>
       </c>
       <c r="N23">
-        <v>1.046702149797351</v>
+        <v>1.033531451335703</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048409591011832</v>
+        <v>1.046253190817398</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04505093457732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042120495567699</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023639937444501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023356962000879</v>
+        <v>1.016700557145291</v>
       </c>
       <c r="D24">
-        <v>1.038544986394421</v>
+        <v>1.032677111236956</v>
       </c>
       <c r="E24">
-        <v>1.034706092208519</v>
+        <v>1.029773838102618</v>
       </c>
       <c r="F24">
-        <v>1.04125523062089</v>
+        <v>1.037165595224032</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.060477415569514</v>
+        <v>1.056593206424052</v>
       </c>
       <c r="J24">
-        <v>1.049984631635021</v>
+        <v>1.04357055024593</v>
       </c>
       <c r="K24">
-        <v>1.051927410708369</v>
+        <v>1.046153692976146</v>
       </c>
       <c r="L24">
-        <v>1.048149961435331</v>
+        <v>1.043297516264896</v>
       </c>
       <c r="M24">
-        <v>1.05459462446571</v>
+        <v>1.05057003079821</v>
       </c>
       <c r="N24">
-        <v>1.051475730246863</v>
+        <v>1.034229700669738</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051780287049885</v>
+        <v>1.04859513306204</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04783790320448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04376939648147</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024035908684707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031782343708274</v>
+        <v>1.023830986699271</v>
       </c>
       <c r="D25">
-        <v>1.044371576187294</v>
+        <v>1.037334465997743</v>
       </c>
       <c r="E25">
-        <v>1.041437465579965</v>
+        <v>1.035369114780884</v>
       </c>
       <c r="F25">
-        <v>1.047445442060288</v>
+        <v>1.042472885223206</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.063476266025652</v>
+        <v>1.058811097198683</v>
       </c>
       <c r="J25">
-        <v>1.055285484470702</v>
+        <v>1.047582124057291</v>
       </c>
       <c r="K25">
-        <v>1.056318027357521</v>
+        <v>1.049379595010216</v>
       </c>
       <c r="L25">
-        <v>1.053424855625206</v>
+        <v>1.047442105975023</v>
       </c>
       <c r="M25">
-        <v>1.059349314519514</v>
+        <v>1.054445795115282</v>
       </c>
       <c r="N25">
-        <v>1.056784110901587</v>
+        <v>1.036384690763366</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.055543238347189</v>
+        <v>1.051662500394622</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.050939375690354</v>
+        <v>1.046047078926642</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024796735160189</v>
       </c>
     </row>
   </sheetData>
